--- a/summer2021.xlsx
+++ b/summer2021.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24129"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA71E25-2247-4FAF-9258-9F405DA4C639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
   <si>
     <t>Task</t>
   </si>
@@ -83,9 +79,6 @@
     <t>in progress</t>
   </si>
   <si>
-    <t>header(10),slides(15), rules(10), redirect(65)</t>
-  </si>
-  <si>
     <t>KID:002</t>
   </si>
   <si>
@@ -276,12 +269,27 @@
   </si>
   <si>
     <t>deploy</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>header,slides, rules redirect,deploy</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Time(minutes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -401,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,23 +433,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -461,12 +460,951 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="101">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -538,19 +1476,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,7 +1521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -648,7 +1573,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -842,44 +1767,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="84" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="13.140625" style="2"/>
+    <col min="1" max="1" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="13.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -897,25 +1824,31 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="7"/>
@@ -934,29 +1867,36 @@
       <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" s="22">
+        <f>AVERAGE(K3:K7)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>15</v>
@@ -970,27 +1910,33 @@
       <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="J3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="22">
         <v>1</v>
       </c>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
+        <v>60</v>
+      </c>
+      <c r="N3" s="19">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
@@ -1004,24 +1950,33 @@
       <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
+        <v>60</v>
+      </c>
+      <c r="N4" s="19">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
+      <c r="E5" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
@@ -1035,208 +1990,291 @@
       <c r="I5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10">
+        <v>60</v>
+      </c>
+      <c r="N5" s="19">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="E6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10">
+        <v>100</v>
+      </c>
+      <c r="N6" s="19">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10">
+        <v>60</v>
+      </c>
+      <c r="N7" s="19">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4"/>
       <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="19">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4"/>
       <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2"/>
       <c r="J9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="19">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="4"/>
       <c r="B10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2"/>
       <c r="J10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="19">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2"/>
       <c r="J11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="19">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="4"/>
       <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2"/>
       <c r="J12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="19">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="4"/>
       <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2"/>
       <c r="J13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="19">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="4"/>
       <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="J14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="19">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2"/>
       <c r="J15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="19">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2"/>
       <c r="J16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="14">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="19">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2"/>
@@ -1246,278 +2284,346 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="19">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="4"/>
       <c r="B18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="14">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="19">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="4"/>
       <c r="B19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="14">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K19" s="22">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="19">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="14">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="12"/>
+      <c r="N20" s="19">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="14">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K21" s="22">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="19">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="4"/>
       <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="14">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K22" s="22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="19">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="14">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K23" s="22">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="19">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="14">
-        <v>0</v>
-      </c>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K24" s="22">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="19">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="14">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K25" s="22">
+        <v>0</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="19">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="4"/>
       <c r="B26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="14">
-        <v>0</v>
-      </c>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K26" s="22">
+        <v>0</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="19">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="4"/>
       <c r="B27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="14">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K27" s="22">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="19">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="4"/>
       <c r="B28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="14">
-        <v>0</v>
-      </c>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="19">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="4"/>
       <c r="B29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="14">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K29" s="22">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="19">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="4"/>
       <c r="B30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="14">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K30" s="22">
+        <v>0</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="19">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="4"/>
       <c r="B31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="14">
-        <v>0</v>
-      </c>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K31" s="22">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="19">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="4"/>
       <c r="B32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="14">
-        <v>0</v>
-      </c>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K32" s="22">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="19">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="4"/>
       <c r="B33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2"/>
       <c r="J33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="14">
-        <v>0</v>
-      </c>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="K33" s="22">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="19">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2"/>
@@ -1527,306 +2633,379 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="14">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K34" s="22">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="19">
+        <v>44381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="4"/>
       <c r="B35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="14">
-        <v>0</v>
-      </c>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K35" s="22">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="19">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="4"/>
       <c r="B36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="14">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K36" s="22">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="19">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="4"/>
       <c r="B37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="14">
-        <v>0</v>
-      </c>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K37" s="22">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="19">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="4"/>
       <c r="B38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="14">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K38" s="22">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="19">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="4"/>
       <c r="B39" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="14">
-        <v>0</v>
-      </c>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="22">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="19">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="4"/>
       <c r="B40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="14">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K40" s="22">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="19">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="4"/>
       <c r="B41" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="14">
-        <v>0</v>
-      </c>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K41" s="22">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="19">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="4"/>
       <c r="B42" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="14">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K42" s="22">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="19">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="4"/>
       <c r="B43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="14">
-        <v>0</v>
-      </c>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K43" s="22">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="19">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="4"/>
       <c r="B44" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="14">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K44" s="22">
+        <v>0</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="19">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="4"/>
       <c r="B45" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="14">
-        <v>0</v>
-      </c>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K45" s="22">
+        <v>0</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="19">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="4"/>
       <c r="B46" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="14">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K46" s="22">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="19">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="4"/>
       <c r="B47" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="14">
-        <v>0</v>
-      </c>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="K47" s="22">
+        <v>0</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="19">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="4"/>
       <c r="B48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="22">
+        <v>0</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="19">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="4"/>
+      <c r="J49" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="22">
+        <v>1</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10">
+        <v>60</v>
+      </c>
+      <c r="N49" s="19">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="14">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="4"/>
-      <c r="J49" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="14">
-        <v>1</v>
-      </c>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="7" t="s">
+      <c r="J50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="22">
+        <f>AVERAGE(K2:K49)</f>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="M50" s="12">
+        <f>(SUM(M2:M49)/60)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="N50" s="19">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="1:14" ht="25.8">
+      <c r="A52" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J50" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="12">
-        <f>AVERAGE(K2:K49)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="1:12" ht="26.25">
-      <c r="A52" s="19" t="s">
+      <c r="B52" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="18" t="s">
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="7" t="s">
+      <c r="B53" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="7" t="s">
+      <c r="B54" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="7" t="s">
+      <c r="B55" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K4:K48 K2">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
@@ -1837,10 +3016,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K49 K2">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF008AEF"/>
       </dataBar>
       <extLst>
@@ -1851,25 +3030,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J4:J51">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J4:J51">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="not started">
+    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="not started">
       <formula>NOT(ISERROR(SEARCH("not started",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J4:J51">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="completed">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="completed">
       <formula>NOT(ISERROR(SEARCH("completed",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
@@ -1880,10 +3059,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF008AEF"/>
       </dataBar>
       <extLst>
@@ -1894,29 +3073,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="not started">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="not started">
       <formula>NOT(ISERROR(SEARCH("not started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="completed">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="completed">
       <formula>NOT(ISERROR(SEARCH("completed",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K50">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J50">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="compeleted">
+      <formula>NOT(ISERROR(SEARCH("compeleted",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="not started">
+      <formula>NOT(ISERROR(SEARCH("not started",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N50">
+    <cfRule type="timePeriod" dxfId="6" priority="1" timePeriod="today">
+      <formula>FLOOR(N2,1)=TODAY()</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="5" priority="2" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(N2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(N2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="4" priority="3" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(N2,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(N2,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(N2,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(N2,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="2" priority="7" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(N2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(N2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="1" priority="8" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(N2,1)&lt;=6,FLOOR(N2,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="0" priority="9" timePeriod="today">
+      <formula>FLOOR(N2,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I48">
+      <formula1>Sheet2!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J50">
+      <formula1>Sheet2!$A$1:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B54:B55" r:id="rId1" display="link" xr:uid="{B5CC6DD2-5038-4846-9672-D19816C66B07}"/>
-    <hyperlink ref="B54" r:id="rId2" xr:uid="{E63E4A17-6760-4878-8560-27F027CAFE7D}"/>
-    <hyperlink ref="B55" r:id="rId3" xr:uid="{F728CBFC-37C0-4337-BC97-0E6E613EFCE5}"/>
-    <hyperlink ref="B52:B54" r:id="rId4" display="link" xr:uid="{B3D4A47C-7F5E-4B92-8BBE-3E9DB2703FA7}"/>
-    <hyperlink ref="B52" r:id="rId5" xr:uid="{6F897C9C-250F-4AC7-8334-690900171C47}"/>
+    <hyperlink ref="B54:B55" r:id="rId1" display="link"/>
+    <hyperlink ref="B54" r:id="rId2"/>
+    <hyperlink ref="B55" r:id="rId3"/>
+    <hyperlink ref="B52:B54" r:id="rId4" display="link"/>
+    <hyperlink ref="B52" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -1986,18 +3226,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCB5297-980F-4D43-B74D-19A3489F73A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>4</v>
@@ -2013,20 +3253,20 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/summer2021.xlsx
+++ b/summer2021.xlsx
@@ -1180,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="18"/>
@@ -2393,7 +2393,7 @@
         <v>0.4</v>
       </c>
       <c r="L17" s="8">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="M17" s="11">
         <v>44351</v>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="L49" s="19">
         <f>(SUM(L2:L48)/60)</f>
-        <v>15.5</v>
+        <v>17.166666666666668</v>
       </c>
       <c r="M49" s="16">
         <v>44383</v>

--- a/summer2021.xlsx
+++ b/summer2021.xlsx
@@ -1180,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="18"/>
@@ -2387,10 +2387,10 @@
         <v>78</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K17" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L17" s="8">
         <v>130</v>
@@ -2466,7 +2466,7 @@
         <v>0.4</v>
       </c>
       <c r="L18" s="8">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M18" s="11">
         <v>44352</v>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="K49" s="22">
         <f>AVERAGE(K2:K48)</f>
-        <v>0.38297872340425526</v>
+        <v>0.39574468085106373</v>
       </c>
       <c r="L49" s="19">
         <f>(SUM(L2:L48)/60)</f>
-        <v>17.166666666666668</v>
+        <v>18</v>
       </c>
       <c r="M49" s="16">
         <v>44383</v>

--- a/summer2021.xlsx
+++ b/summer2021.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="101">
   <si>
     <t>Task</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>(login)</t>
+  </si>
+  <si>
+    <t>suggestion card</t>
+  </si>
+  <si>
+    <t>(cards)</t>
+  </si>
+  <si>
+    <t>desgin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code </t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1192,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1190,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" activeCellId="1" sqref="I22 F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="18"/>
@@ -2729,14 +2741,26 @@
         <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="J22" s="3" t="s">
         <v>26</v>
       </c>
